--- a/data/data-education-modified/education-averages.xlsx
+++ b/data/data-education-modified/education-averages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project 2\Education Results\Modified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\Education Data\Modified Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Fergus Cuthill</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fergus Cuthill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this, a pupil must pass all 4 of the subjects (GPS stands for grammar, punctuation and spelling). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fergus Cuthill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Average of the number of pupils attaining a pass for each subject (GPS stands for grammar, punctuation and spelling). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Average Attainment 8 score per pupil</t>
   </si>
@@ -378,16 +426,25 @@
     <t/>
   </si>
   <si>
-    <t>Average grade, reading, writing, maths, science</t>
-  </si>
-  <si>
     <t>KS2</t>
   </si>
   <si>
-    <t>Average attaining, reading, writing, maths and GPS</t>
-  </si>
-  <si>
-    <t>Average attaining pass for all of reading, writing, maths and GPS</t>
+    <t>Average percentage reaching expected standard, reading, writing, maths, science</t>
+  </si>
+  <si>
+    <t>Average percentage reaching higher standard, reading, writing, maths, science</t>
+  </si>
+  <si>
+    <t>Percentage reaching expected standard for all subjects: reading, writing, maths and GPS</t>
+  </si>
+  <si>
+    <t>Average percentage meeting higher standard, reading, writing, maths and GPS</t>
+  </si>
+  <si>
+    <t>Average percentage meeting expected standard, reading, writing, maths and GPS</t>
+  </si>
+  <si>
+    <t>Percentage reaching higher standard for all subjects: reading, writing, maths and GPS</t>
   </si>
 </sst>
 </file>
@@ -621,9 +678,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -631,12 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -669,8 +719,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -685,6 +733,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,1146 +1027,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>75.375</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="8">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="E5" s="26">
         <v>77.621050912505609</v>
       </c>
-      <c r="E5" s="32">
+      <c r="F5" s="8">
         <v>63.404687053443851</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="8">
+        <v>26.137820499734612</v>
+      </c>
+      <c r="H5" s="27">
+        <v>8.5579451271792006</v>
+      </c>
+      <c r="I5" s="11">
         <v>47.224999999999994</v>
       </c>
-      <c r="G5" s="15">
+      <c r="J5" s="12">
         <v>0.17750000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>77.8125</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="8">
+        <v>22</v>
+      </c>
+      <c r="E6" s="26">
         <v>80.822326662351202</v>
       </c>
-      <c r="E6" s="32">
+      <c r="F6" s="8">
         <v>68.58930704898448</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="8">
+        <v>31.05945281278381</v>
+      </c>
+      <c r="H6" s="27">
+        <v>11.453703703703701</v>
+      </c>
+      <c r="I6" s="11">
         <v>55.975000000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="J6" s="12">
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>80.375</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="8">
+        <v>24.083333333333332</v>
+      </c>
+      <c r="E7" s="26">
         <v>78.90933235975902</v>
       </c>
-      <c r="E7" s="32">
+      <c r="F7" s="8">
         <v>65.8974435196195</v>
       </c>
-      <c r="F7" s="14">
+      <c r="G7" s="8">
+        <v>28.285326334619896</v>
+      </c>
+      <c r="H7" s="27">
+        <v>11.294887039239001</v>
+      </c>
+      <c r="I7" s="11">
         <v>50.099999999999994</v>
       </c>
-      <c r="G7" s="15">
+      <c r="J7" s="12">
         <v>-6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>74.375</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="E8" s="26">
         <v>76.357952992620937</v>
       </c>
-      <c r="E8" s="32">
+      <c r="F8" s="8">
         <v>61.735515168078699</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="8">
+        <v>26.658889040721512</v>
+      </c>
+      <c r="H8" s="27">
+        <v>8.435159879748575</v>
+      </c>
+      <c r="I8" s="11">
         <v>50.15</v>
       </c>
-      <c r="G8" s="15">
+      <c r="J8" s="12">
         <v>0.45250000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="14">
         <v>80.3125</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="8">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="E9" s="26">
         <v>83.265983221950222</v>
       </c>
-      <c r="E9" s="32">
+      <c r="F9" s="8">
         <v>73.131255017393627</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="8">
+        <v>32.910657534670214</v>
+      </c>
+      <c r="H9" s="27">
+        <v>14.631857104629375</v>
+      </c>
+      <c r="I9" s="11">
         <v>51.149999999999991</v>
       </c>
-      <c r="G9" s="15">
+      <c r="J9" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>75.4375</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="8">
+        <v>19.833333333333332</v>
+      </c>
+      <c r="E10" s="26">
         <v>80.620029335071706</v>
       </c>
-      <c r="E10" s="32">
+      <c r="F10" s="8">
         <v>68.301825293350731</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="8">
+        <v>30.383393089960883</v>
+      </c>
+      <c r="H10" s="27">
+        <v>12.476531942633624</v>
+      </c>
+      <c r="I10" s="11">
         <v>48.874999999999993</v>
       </c>
-      <c r="G10" s="15">
+      <c r="J10" s="12">
         <v>5.2500000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>77</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="8">
+        <v>22.083333333333332</v>
+      </c>
+      <c r="E11" s="26">
         <v>76.684536637931032</v>
       </c>
-      <c r="E11" s="32">
+      <c r="F11" s="8">
         <v>63.159482758620697</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="8">
+        <v>26.008351293103452</v>
+      </c>
+      <c r="H11" s="27">
+        <v>9.7564655172413755</v>
+      </c>
+      <c r="I11" s="11">
         <v>46.2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="J11" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>74.5</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="E12" s="26">
         <v>78.802419354838705</v>
       </c>
-      <c r="E12" s="32">
+      <c r="F12" s="8">
         <v>64.520737327188954</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G12" s="8">
+        <v>28.688364055299537</v>
+      </c>
+      <c r="H12" s="27">
+        <v>10.622119815668199</v>
+      </c>
+      <c r="I12" s="11">
         <v>50.125000000000007</v>
       </c>
-      <c r="G12" s="15">
+      <c r="J12" s="12">
         <v>0.45249999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="14">
         <v>72.1875</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="8">
+        <v>18.249999999999996</v>
+      </c>
+      <c r="E13" s="26">
         <v>75.276475828211289</v>
       </c>
-      <c r="E13" s="32">
+      <c r="F13" s="8">
         <v>61.175634954799825</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G13" s="8">
+        <v>24.519838744968613</v>
+      </c>
+      <c r="H13" s="27">
+        <v>8.488915195867424</v>
+      </c>
+      <c r="I13" s="11">
         <v>47.35</v>
       </c>
-      <c r="G13" s="15">
+      <c r="J13" s="12">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>80.3125</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="8">
+        <v>28.250000000000004</v>
+      </c>
+      <c r="E14" s="26">
         <v>80.624295944980702</v>
       </c>
-      <c r="E14" s="32">
+      <c r="F14" s="8">
         <v>69.443950177935946</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="8">
+        <v>30.623864732987055</v>
+      </c>
+      <c r="H14" s="27">
+        <v>12.758896797153024</v>
+      </c>
+      <c r="I14" s="11">
         <v>46.324999999999996</v>
       </c>
-      <c r="G14" s="15">
+      <c r="J14" s="12">
         <v>-0.105</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="14">
         <v>80.75</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="8">
+        <v>24.75</v>
+      </c>
+      <c r="E15" s="26">
         <v>79.805055802926717</v>
       </c>
-      <c r="E15" s="32">
+      <c r="F15" s="8">
         <v>68.176651305683578</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="8">
+        <v>27.972537453448446</v>
+      </c>
+      <c r="H15" s="27">
+        <v>11.889400921658975</v>
+      </c>
+      <c r="I15" s="11">
         <v>50.024999999999999</v>
       </c>
-      <c r="G15" s="15">
+      <c r="J15" s="12">
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>78.75</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="8">
+        <v>24.583333333333332</v>
+      </c>
+      <c r="E16" s="26">
         <v>82.189858490566039</v>
       </c>
-      <c r="E16" s="32">
+      <c r="F16" s="8">
         <v>70.514150943396231</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G16" s="8">
+        <v>32.711084905660371</v>
+      </c>
+      <c r="H16" s="27">
+        <v>13.10377358490565</v>
+      </c>
+      <c r="I16" s="11">
         <v>52.949999999999996</v>
       </c>
-      <c r="G16" s="15">
+      <c r="J16" s="12">
         <v>0.22500000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>78.125</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="8">
+        <v>25.75</v>
+      </c>
+      <c r="E17" s="26">
         <v>77.511095286513452</v>
       </c>
-      <c r="E17" s="32">
+      <c r="F17" s="8">
         <v>63.239882506527422</v>
       </c>
-      <c r="F17" s="14">
+      <c r="G17" s="8">
+        <v>28.907645980915774</v>
+      </c>
+      <c r="H17" s="27">
+        <v>12.606396866840726</v>
+      </c>
+      <c r="I17" s="11">
         <v>47.449999999999996</v>
       </c>
-      <c r="G17" s="15">
+      <c r="J17" s="12">
         <v>0.24249999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>78.875</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="E18" s="26">
         <v>82.589466944572493</v>
       </c>
-      <c r="E18" s="32">
+      <c r="F18" s="8">
         <v>69.701568894952246</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G18" s="8">
+        <v>33.407149334221437</v>
+      </c>
+      <c r="H18" s="27">
+        <v>11.862551159618</v>
+      </c>
+      <c r="I18" s="11">
         <v>51.1</v>
       </c>
-      <c r="G18" s="15">
+      <c r="J18" s="12">
         <v>0.40750000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <v>78.125</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="8">
+        <v>20.416666666666664</v>
+      </c>
+      <c r="E19" s="26">
         <v>81.241260768721006</v>
       </c>
-      <c r="E19" s="32">
+      <c r="F19" s="8">
         <v>69.1343605036448</v>
       </c>
-      <c r="F19" s="14">
+      <c r="G19" s="8">
+        <v>28.146164678595092</v>
+      </c>
+      <c r="H19" s="27">
+        <v>10.2321073558648</v>
+      </c>
+      <c r="I19" s="11">
         <v>48.225000000000001</v>
       </c>
-      <c r="G19" s="15">
+      <c r="J19" s="12">
         <v>-8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>76.0625</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="8">
+        <v>21.416666666666664</v>
+      </c>
+      <c r="E20" s="26">
         <v>78.680292157867754</v>
       </c>
-      <c r="E20" s="32">
+      <c r="F20" s="8">
         <v>63.907867760123025</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="8">
+        <v>28.572751153254742</v>
+      </c>
+      <c r="H20" s="27">
+        <v>10.32534597642235</v>
+      </c>
+      <c r="I20" s="11">
         <v>48.45</v>
       </c>
-      <c r="G20" s="15">
+      <c r="J20" s="12">
         <v>0.115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>79.875</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="8">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E21" s="26">
         <v>79.828181526879177</v>
       </c>
-      <c r="E21" s="32">
+      <c r="F21" s="8">
         <v>66.126207729468604</v>
       </c>
-      <c r="F21" s="14">
+      <c r="G21" s="8">
+        <v>31.268759724172533</v>
+      </c>
+      <c r="H21" s="27">
+        <v>13.410024154589376</v>
+      </c>
+      <c r="I21" s="11">
         <v>49.449999999999996</v>
       </c>
-      <c r="G21" s="15">
+      <c r="J21" s="12">
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>75.8125</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="8">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="E22" s="26">
         <v>78.137090920814359</v>
       </c>
-      <c r="E22" s="32">
+      <c r="F22" s="8">
         <v>65.433000525486079</v>
       </c>
-      <c r="F22" s="14">
+      <c r="G22" s="8">
+        <v>29.053493810022299</v>
+      </c>
+      <c r="H22" s="27">
+        <v>13.428402522333149</v>
+      </c>
+      <c r="I22" s="11">
         <v>47.074999999999996</v>
       </c>
-      <c r="G22" s="15">
+      <c r="J22" s="12">
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>81.0625</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="8">
+        <v>24.833333333333336</v>
+      </c>
+      <c r="E23" s="26">
         <v>85.851554267650158</v>
       </c>
-      <c r="E23" s="32">
+      <c r="F23" s="8">
         <v>74.757112750263417</v>
       </c>
-      <c r="F23" s="14">
+      <c r="G23" s="8">
+        <v>38.600171232876711</v>
+      </c>
+      <c r="H23" s="27">
+        <v>17.913329820864075</v>
+      </c>
+      <c r="I23" s="11">
         <v>54.199999999999996</v>
       </c>
-      <c r="G23" s="15">
+      <c r="J23" s="12">
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>78.6875</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="8">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="E24" s="26">
         <v>80.305921052631575</v>
       </c>
-      <c r="E24" s="32">
+      <c r="F24" s="8">
         <v>66.434210526315795</v>
       </c>
-      <c r="F24" s="14">
+      <c r="G24" s="8">
+        <v>31.151315789473681</v>
+      </c>
+      <c r="H24" s="27">
+        <v>12.32894736842105</v>
+      </c>
+      <c r="I24" s="11">
         <v>57.099999999999994</v>
       </c>
-      <c r="G24" s="15">
+      <c r="J24" s="12">
         <v>0.435</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="14">
         <v>78.8125</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="8">
+        <v>23.25</v>
+      </c>
+      <c r="E25" s="26">
         <v>81.045408684150033</v>
       </c>
-      <c r="E25" s="32">
+      <c r="F25" s="8">
         <v>68.269891053152847</v>
       </c>
-      <c r="F25" s="14">
+      <c r="G25" s="8">
+        <v>28.636426058006926</v>
+      </c>
+      <c r="H25" s="27">
+        <v>11.034912512380325</v>
+      </c>
+      <c r="I25" s="11">
         <v>45.674999999999997</v>
       </c>
-      <c r="G25" s="15">
+      <c r="J25" s="12">
         <v>-3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>78.0625</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="8">
+        <v>21.583333333333336</v>
+      </c>
+      <c r="E26" s="26">
         <v>76.652917867435164</v>
       </c>
-      <c r="E26" s="32">
+      <c r="F26" s="8">
         <v>63.688040345821321</v>
       </c>
-      <c r="F26" s="14">
+      <c r="G26" s="8">
+        <v>25.813400576368874</v>
+      </c>
+      <c r="H26" s="27">
+        <v>8.9855907780979827</v>
+      </c>
+      <c r="I26" s="11">
         <v>45.075000000000003</v>
       </c>
-      <c r="G26" s="15">
+      <c r="J26" s="12">
         <v>-0.22750000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="14">
         <v>77.125</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="8">
+        <v>23.666666666666664</v>
+      </c>
+      <c r="E27" s="26">
         <v>79.276428726640603</v>
       </c>
-      <c r="E27" s="32">
+      <c r="F27" s="8">
         <v>65.318557149065626</v>
       </c>
-      <c r="F27" s="14">
+      <c r="G27" s="8">
+        <v>30.140319426336376</v>
+      </c>
+      <c r="H27" s="27">
+        <v>11.12896566710125</v>
+      </c>
+      <c r="I27" s="11">
         <v>50.85</v>
       </c>
-      <c r="G27" s="15">
+      <c r="J27" s="12">
         <v>0.44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>79.0625</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="8">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="E28" s="26">
         <v>82.843490205592289</v>
       </c>
-      <c r="E28" s="32">
+      <c r="F28" s="8">
         <v>70.945764137061175</v>
       </c>
-      <c r="F28" s="14">
+      <c r="G28" s="8">
+        <v>32.182477021117506</v>
+      </c>
+      <c r="H28" s="27">
+        <v>11.654771915072525</v>
+      </c>
+      <c r="I28" s="11">
         <v>49.2</v>
       </c>
-      <c r="G28" s="15">
+      <c r="J28" s="12">
         <v>0.29749999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="14">
         <v>78.1875</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="8">
+        <v>26.416666666666668</v>
+      </c>
+      <c r="E29" s="26">
         <v>80.48597157559422</v>
       </c>
-      <c r="E29" s="32">
+      <c r="F29" s="8">
         <v>67.298211222739525</v>
       </c>
-      <c r="F29" s="14">
+      <c r="G29" s="8">
+        <v>32.324277137956386</v>
+      </c>
+      <c r="H29" s="27">
+        <v>13.177897574124</v>
+      </c>
+      <c r="I29" s="11">
         <v>53.050000000000004</v>
       </c>
-      <c r="G29" s="15">
+      <c r="J29" s="12">
         <v>0.41749999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>82</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="8">
+        <v>30.166666666666668</v>
+      </c>
+      <c r="E30" s="26">
         <v>86.591886343993082</v>
       </c>
-      <c r="E30" s="32">
+      <c r="F30" s="8">
         <v>76.246326707000875</v>
       </c>
-      <c r="F30" s="14">
+      <c r="G30" s="8">
+        <v>40.114412273120138</v>
+      </c>
+      <c r="H30" s="27">
+        <v>17.576274848746749</v>
+      </c>
+      <c r="I30" s="11">
         <v>53.274999999999999</v>
       </c>
-      <c r="G30" s="15">
+      <c r="J30" s="12">
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="14">
         <v>77.75</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="8">
+        <v>21.833333333333336</v>
+      </c>
+      <c r="E31" s="26">
         <v>77.820488721804509</v>
       </c>
-      <c r="E31" s="32">
+      <c r="F31" s="8">
         <v>64.80263157894737</v>
       </c>
-      <c r="F31" s="14">
+      <c r="G31" s="8">
+        <v>26.442669172932337</v>
+      </c>
+      <c r="H31" s="27">
+        <v>10.112781954887225</v>
+      </c>
+      <c r="I31" s="11">
         <v>50.774999999999999</v>
       </c>
-      <c r="G31" s="15">
+      <c r="J31" s="12">
         <v>0.27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>78.8125</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="8">
+        <v>25.25</v>
+      </c>
+      <c r="E32" s="26">
         <v>82.385849430416698</v>
       </c>
-      <c r="E32" s="32">
+      <c r="F32" s="8">
         <v>70.921392827356129</v>
       </c>
-      <c r="F32" s="14">
+      <c r="G32" s="8">
+        <v>34.887471053236318</v>
+      </c>
+      <c r="H32" s="27">
+        <v>15.722477064220175</v>
+      </c>
+      <c r="I32" s="11">
         <v>57.900000000000006</v>
       </c>
-      <c r="G32" s="15">
+      <c r="J32" s="12">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="14">
         <v>76.25</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="8">
+        <v>21.416666666666668</v>
+      </c>
+      <c r="E33" s="26">
         <v>81.141797228080748</v>
       </c>
-      <c r="E33" s="32">
+      <c r="F33" s="8">
         <v>68.607863814401924</v>
       </c>
-      <c r="F33" s="14">
+      <c r="G33" s="8">
+        <v>28.472054835793912</v>
+      </c>
+      <c r="H33" s="27">
+        <v>10.647107562518825</v>
+      </c>
+      <c r="I33" s="11">
         <v>48.149999999999991</v>
       </c>
-      <c r="G33" s="15">
+      <c r="J33" s="12">
         <v>0.19750000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>79.9375</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="8">
+        <v>24.833333333333336</v>
+      </c>
+      <c r="E34" s="26">
         <v>79.242050934297779</v>
       </c>
-      <c r="E34" s="32">
+      <c r="F34" s="8">
         <v>66.727697408077148</v>
       </c>
-      <c r="F34" s="14">
+      <c r="G34" s="8">
+        <v>28.644816154309819</v>
+      </c>
+      <c r="H34" s="27">
+        <v>11.3967751657625</v>
+      </c>
+      <c r="I34" s="11">
         <v>47.050000000000004</v>
       </c>
-      <c r="G34" s="15">
+      <c r="J34" s="12">
         <v>0.17250000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="14">
         <v>81.0625</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="8">
+        <v>26</v>
+      </c>
+      <c r="E35" s="26">
         <v>79.585302998750521</v>
       </c>
-      <c r="E35" s="32">
+      <c r="F35" s="8">
         <v>67.857246980424833</v>
       </c>
-      <c r="F35" s="14">
+      <c r="G35" s="8">
+        <v>30.1448354852145</v>
+      </c>
+      <c r="H35" s="27">
+        <v>12.644210745522701</v>
+      </c>
+      <c r="I35" s="11">
         <v>50.449999999999996</v>
       </c>
-      <c r="G35" s="15">
+      <c r="J35" s="12">
         <v>0.23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="14">
         <v>76.6875</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="8">
+        <v>22.500000000000004</v>
+      </c>
+      <c r="E36" s="26">
         <v>80.806372549019613</v>
       </c>
-      <c r="E36" s="32">
+      <c r="F36" s="8">
         <v>67.077030812324921</v>
       </c>
-      <c r="F36" s="14">
+      <c r="G36" s="8">
+        <v>30.187149859943979</v>
+      </c>
+      <c r="H36" s="27">
+        <v>10.721288515406176</v>
+      </c>
+      <c r="I36" s="11">
         <v>53.35</v>
       </c>
-      <c r="G36" s="15">
+      <c r="J36" s="12">
         <v>0.435</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="E37" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="14">
         <v>78.4375</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="8">
+        <v>23.25</v>
+      </c>
+      <c r="E38" s="26">
         <v>79.958259245375984</v>
       </c>
-      <c r="E38" s="32">
+      <c r="F38" s="8">
         <v>67.38942539835827</v>
       </c>
-      <c r="F38" s="14">
+      <c r="G38" s="8">
+        <v>29.266068219657225</v>
+      </c>
+      <c r="H38" s="27">
+        <v>67.38942539835827</v>
+      </c>
+      <c r="I38" s="11">
         <v>49.05</v>
       </c>
-      <c r="G38" s="15">
+      <c r="J38" s="12">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="14">
         <v>77.625</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="8">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E39" s="26">
         <v>79.548383686563909</v>
       </c>
-      <c r="E39" s="32">
+      <c r="F39" s="8">
         <v>66.683847315074402</v>
       </c>
-      <c r="F39" s="14">
+      <c r="G39" s="8">
+        <v>29.741660084748617</v>
+      </c>
+      <c r="H39" s="27">
+        <v>66.683847315074402</v>
+      </c>
+      <c r="I39" s="11">
         <v>50.45</v>
       </c>
-      <c r="G39" s="15">
+      <c r="J39" s="12">
         <v>0.2175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="2" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="E40" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="14">
         <v>76.4375</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="8">
+        <v>21.083333333333332</v>
+      </c>
+      <c r="E41" s="26">
         <v>77.209623175506962</v>
       </c>
-      <c r="E41" s="32">
+      <c r="F41" s="8">
         <v>64.211690808445752</v>
       </c>
-      <c r="F41" s="14">
+      <c r="G41" s="8">
+        <v>24.50564898818855</v>
+      </c>
+      <c r="H41" s="27">
+        <v>64.211690808445752</v>
+      </c>
+      <c r="I41" s="11">
         <v>45.724999999999994</v>
       </c>
-      <c r="G41" s="15">
+      <c r="J41" s="12">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="14">
         <v>73.25</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="E42" s="26">
         <v>75.25441272459733</v>
       </c>
-      <c r="E42" s="32">
+      <c r="F42" s="8">
         <v>60.890233359669324</v>
       </c>
-      <c r="F42" s="14">
+      <c r="G42" s="8">
+        <v>22.85873621237787</v>
+      </c>
+      <c r="H42" s="27">
+        <v>60.890233359669324</v>
+      </c>
+      <c r="I42" s="11">
         <v>46.550000000000004</v>
       </c>
-      <c r="G42" s="15">
+      <c r="J42" s="12">
         <v>-0.1575</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="14">
         <v>72.5625</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="8">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="E43" s="26">
         <v>72.921189725858213</v>
       </c>
-      <c r="E43" s="32">
+      <c r="F43" s="8">
         <v>58.359597749865152</v>
       </c>
-      <c r="F43" s="14">
+      <c r="G43" s="8">
+        <v>21.745774122996394</v>
+      </c>
+      <c r="H43" s="27">
+        <v>58.359597749865152</v>
+      </c>
+      <c r="I43" s="11">
         <v>46.2</v>
       </c>
-      <c r="G43" s="15">
+      <c r="J43" s="12">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="14">
         <v>73.4375</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="8">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="E44" s="26">
         <v>73.651266094462471</v>
       </c>
-      <c r="E44" s="32">
+      <c r="F44" s="8">
         <v>59.300010821925227</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G44" s="8">
+        <v>22.329876439349661</v>
+      </c>
+      <c r="H44" s="27">
+        <v>59.300010821925227</v>
+      </c>
+      <c r="I44" s="11">
         <v>46.4</v>
       </c>
-      <c r="G44" s="15">
+      <c r="J44" s="12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="14">
         <v>73.75</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="8">
+        <v>18.75</v>
+      </c>
+      <c r="E45" s="26">
         <v>73.763559534934117</v>
       </c>
-      <c r="E45" s="32">
+      <c r="F45" s="8">
         <v>59.076335400272498</v>
       </c>
-      <c r="F45" s="14">
+      <c r="G45" s="8">
+        <v>22.487053211450426</v>
+      </c>
+      <c r="H45" s="27">
+        <v>59.076335400272498</v>
+      </c>
+      <c r="I45" s="11">
         <v>46.350000000000009</v>
       </c>
-      <c r="G45" s="15">
+      <c r="J45" s="12">
         <v>-7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="14">
         <v>75.25</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="8">
+        <v>21.583333333333336</v>
+      </c>
+      <c r="E46" s="26">
         <v>74.026527241396096</v>
       </c>
-      <c r="E46" s="32">
+      <c r="F46" s="8">
         <v>60.152842709016575</v>
       </c>
-      <c r="F46" s="14">
+      <c r="G46" s="8">
+        <v>23.479945689862088</v>
+      </c>
+      <c r="H46" s="27">
+        <v>60.152842709016575</v>
+      </c>
+      <c r="I46" s="11">
         <v>47.774999999999999</v>
       </c>
-      <c r="G46" s="15">
+      <c r="J46" s="12">
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="14">
         <v>77.75</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="8">
+        <v>23.333333333333336</v>
+      </c>
+      <c r="E47" s="26">
         <v>79.746801430293544</v>
       </c>
-      <c r="E47" s="32">
+      <c r="F47" s="8">
         <v>66.668835539600622</v>
       </c>
-      <c r="F47" s="14">
+      <c r="G47" s="8">
+        <v>29.6029172912117</v>
+      </c>
+      <c r="H47" s="27">
+        <v>66.668835539600622</v>
+      </c>
+      <c r="I47" s="11">
         <v>49.975000000000001</v>
       </c>
-      <c r="G47" s="15">
+      <c r="J47" s="12">
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="14">
         <v>77.0625</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="8">
+        <v>21.416666666666664</v>
+      </c>
+      <c r="E48" s="26">
         <v>75.756219507153077</v>
       </c>
-      <c r="E48" s="32">
+      <c r="F48" s="8">
         <v>62.586362467103299</v>
       </c>
-      <c r="F48" s="14">
+      <c r="G48" s="8">
+        <v>24.929254698146082</v>
+      </c>
+      <c r="H48" s="27">
+        <v>62.586362467103299</v>
+      </c>
+      <c r="I48" s="11">
         <v>48.55</v>
       </c>
-      <c r="G48" s="15">
+      <c r="J48" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="14">
         <v>75.0625</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="8">
+        <v>19.749999999999996</v>
+      </c>
+      <c r="E49" s="26">
         <v>73.959266680996791</v>
       </c>
-      <c r="E49" s="32">
+      <c r="F49" s="8">
         <v>59.719012516446824</v>
       </c>
-      <c r="F49" s="14">
+      <c r="G49" s="8">
+        <v>23.028608210780433</v>
+      </c>
+      <c r="H49" s="27">
+        <v>59.719012516446824</v>
+      </c>
+      <c r="I49" s="11">
         <v>47.475000000000009</v>
       </c>
-      <c r="G49" s="15">
+      <c r="J49" s="12">
         <v>-7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="E50" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="17">
         <v>75.125</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="18">
+        <v>20.416666666666668</v>
+      </c>
+      <c r="E51" s="36">
         <v>75.268479303123968</v>
       </c>
-      <c r="E51" s="42">
+      <c r="F51" s="18">
         <v>61.586236740473552</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="G51" s="18">
+        <v>24.267021851971506</v>
+      </c>
+      <c r="H51" s="37">
+        <v>61.586236740473552</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data-education-modified/education-averages.xlsx
+++ b/data/data-education-modified/education-averages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\Education Data\Modified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\data\data-education-modified\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,15 +130,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Average Attainment 8 score per pupil</t>
   </si>
   <si>
     <t>Average Progress 8 score per pupil</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Code</t>
@@ -1029,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,44 +1043,44 @@
       <c r="A1" s="2"/>
       <c r="B1" s="24"/>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="35"/>
       <c r="I1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="G2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>0</v>
@@ -1106,10 +1103,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="8"/>
@@ -1117,19 +1114,15 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="14">
         <v>75.375</v>
@@ -1158,10 +1151,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="14">
         <v>77.8125</v>
@@ -1190,10 +1183,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="14">
         <v>80.375</v>
@@ -1222,10 +1215,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="14">
         <v>74.375</v>
@@ -1254,10 +1247,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="14">
         <v>80.3125</v>
@@ -1286,10 +1279,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="14">
         <v>75.4375</v>
@@ -1318,10 +1311,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="C11" s="14">
         <v>77</v>
@@ -1350,10 +1343,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>22</v>
       </c>
       <c r="C12" s="14">
         <v>74.5</v>
@@ -1382,10 +1375,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="14">
         <v>72.1875</v>
@@ -1414,10 +1407,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="14">
         <v>80.3125</v>
@@ -1446,10 +1439,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="14">
         <v>80.75</v>
@@ -1478,10 +1471,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>30</v>
       </c>
       <c r="C16" s="14">
         <v>78.75</v>
@@ -1510,10 +1503,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="C17" s="14">
         <v>78.125</v>
@@ -1542,10 +1535,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="14">
         <v>78.875</v>
@@ -1574,10 +1567,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>36</v>
       </c>
       <c r="C19" s="14">
         <v>78.125</v>
@@ -1606,10 +1599,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="14">
         <v>76.0625</v>
@@ -1638,10 +1631,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="14">
         <v>79.875</v>
@@ -1670,10 +1663,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="14">
         <v>75.8125</v>
@@ -1702,10 +1695,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="14">
         <v>81.0625</v>
@@ -1734,10 +1727,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="14">
         <v>78.6875</v>
@@ -1766,10 +1759,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="14">
         <v>78.8125</v>
@@ -1798,10 +1791,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="14">
         <v>78.0625</v>
@@ -1830,10 +1823,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="14">
         <v>77.125</v>
@@ -1862,10 +1855,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="14">
         <v>79.0625</v>
@@ -1894,10 +1887,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="14">
         <v>78.1875</v>
@@ -1926,10 +1919,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="14">
         <v>82</v>
@@ -1958,10 +1951,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="14">
         <v>77.75</v>
@@ -1990,10 +1983,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="14">
         <v>78.8125</v>
@@ -2022,10 +2015,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="14">
         <v>76.25</v>
@@ -2054,10 +2047,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="14">
         <v>79.9375</v>
@@ -2086,10 +2079,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="14">
         <v>81.0625</v>
@@ -2118,10 +2111,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="14">
         <v>76.6875</v>
@@ -2152,17 +2145,17 @@
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="11"/>
@@ -2170,10 +2163,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="C38" s="14">
         <v>78.4375</v>
@@ -2202,10 +2195,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>73</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="C39" s="14">
         <v>77.625</v>
@@ -2236,17 +2229,17 @@
       <c r="A40" s="13"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="11"/>
@@ -2254,10 +2247,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="C41" s="14">
         <v>76.4375</v>
@@ -2286,10 +2279,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>78</v>
       </c>
       <c r="C42" s="14">
         <v>73.25</v>
@@ -2318,10 +2311,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="C43" s="14">
         <v>72.5625</v>
@@ -2350,10 +2343,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>82</v>
       </c>
       <c r="C44" s="14">
         <v>73.4375</v>
@@ -2382,10 +2375,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="C45" s="14">
         <v>73.75</v>
@@ -2414,10 +2407,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="C46" s="14">
         <v>75.25</v>
@@ -2446,10 +2439,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="C47" s="14">
         <v>77.75</v>
@@ -2478,10 +2471,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="C48" s="14">
         <v>77.0625</v>
@@ -2510,10 +2503,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="C49" s="14">
         <v>75.0625</v>
@@ -2544,17 +2537,17 @@
       <c r="A50" s="13"/>
       <c r="B50" s="16"/>
       <c r="C50" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="1"/>
@@ -2562,10 +2555,10 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="C51" s="17">
         <v>75.125</v>
